--- a/database/industries/folad/kechad/product/quarterly_seprated.xlsx
+++ b/database/industries/folad/kechad/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC68698-D944-46C0-8E5C-981FBF766887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E11D0-11B9-42D6-9374-F0FDFE18FBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -688,12 +688,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -708,7 +708,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -757,7 +757,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -806,7 +806,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -858,7 +858,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -884,25 +884,25 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>99900</v>
+        <v>62573</v>
       </c>
       <c r="F11" s="11">
-        <v>62573</v>
+        <v>37329</v>
       </c>
       <c r="G11" s="11">
-        <v>37329</v>
+        <v>0</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
         <v>5025</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -923,37 +923,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>319473</v>
+        <v>410081</v>
       </c>
       <c r="F12" s="13">
-        <v>410081</v>
+        <v>443556</v>
       </c>
       <c r="G12" s="13">
-        <v>443556</v>
+        <v>259138</v>
       </c>
       <c r="H12" s="13">
-        <v>259138</v>
+        <v>323069</v>
       </c>
       <c r="I12" s="13">
-        <v>323069</v>
-      </c>
-      <c r="J12" s="13">
         <v>598145</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>441863</v>
       </c>
       <c r="L12" s="13">
-        <v>441863</v>
+        <v>305112</v>
       </c>
       <c r="M12" s="13">
-        <v>305112</v>
+        <v>377211</v>
       </c>
       <c r="N12" s="13">
-        <v>377211</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>239109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -962,37 +962,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1420721</v>
+        <v>2014523</v>
       </c>
       <c r="F13" s="11">
-        <v>2014523</v>
+        <v>6532107</v>
       </c>
       <c r="G13" s="11">
-        <v>6532107</v>
+        <v>2137698</v>
       </c>
       <c r="H13" s="11">
-        <v>2137698</v>
+        <v>2141762</v>
       </c>
       <c r="I13" s="11">
-        <v>2141762</v>
-      </c>
-      <c r="J13" s="11">
         <v>1710089</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1687709</v>
       </c>
       <c r="L13" s="11">
-        <v>1687709</v>
+        <v>1587188</v>
       </c>
       <c r="M13" s="11">
-        <v>1587188</v>
+        <v>1463589</v>
       </c>
       <c r="N13" s="11">
-        <v>1463589</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1530570</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1001,37 +1001,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>-475639</v>
+        <v>6616</v>
       </c>
       <c r="F14" s="13">
-        <v>6616</v>
+        <v>14372</v>
       </c>
       <c r="G14" s="13">
-        <v>14372</v>
+        <v>21824</v>
       </c>
       <c r="H14" s="13">
-        <v>21824</v>
+        <v>13456</v>
       </c>
       <c r="I14" s="13">
-        <v>13456</v>
-      </c>
-      <c r="J14" s="13">
         <v>21056</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>12089</v>
       </c>
       <c r="L14" s="13">
-        <v>12089</v>
+        <v>34025</v>
       </c>
       <c r="M14" s="13">
-        <v>34025</v>
+        <v>14877</v>
       </c>
       <c r="N14" s="13">
-        <v>14877</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14696</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1040,37 +1040,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>175555</v>
+        <v>120026</v>
       </c>
       <c r="F15" s="11">
-        <v>120026</v>
+        <v>133873</v>
       </c>
       <c r="G15" s="11">
-        <v>133873</v>
+        <v>160832</v>
       </c>
       <c r="H15" s="11">
-        <v>160832</v>
+        <v>102768</v>
       </c>
       <c r="I15" s="11">
-        <v>102768</v>
-      </c>
-      <c r="J15" s="11">
         <v>164821</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
+        <v>187548</v>
       </c>
       <c r="L15" s="11">
-        <v>187548</v>
+        <v>232873</v>
       </c>
       <c r="M15" s="11">
-        <v>232873</v>
+        <v>271391</v>
       </c>
       <c r="N15" s="11">
-        <v>271391</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>219919</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1079,37 +1079,37 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>115228</v>
+        <v>94690</v>
       </c>
       <c r="F16" s="13">
-        <v>94690</v>
+        <v>49340</v>
       </c>
       <c r="G16" s="13">
-        <v>49340</v>
+        <v>38698</v>
       </c>
       <c r="H16" s="13">
-        <v>38698</v>
+        <v>72786</v>
       </c>
       <c r="I16" s="13">
-        <v>72786</v>
-      </c>
-      <c r="J16" s="13">
         <v>56599</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>18</v>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13">
+        <v>19990</v>
       </c>
       <c r="L16" s="13">
-        <v>19990</v>
+        <v>25662</v>
       </c>
       <c r="M16" s="13">
-        <v>25662</v>
+        <v>89060</v>
       </c>
       <c r="N16" s="13">
-        <v>89060</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1135,8 +1135,8 @@
       <c r="J17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
+      <c r="K17" s="11">
+        <v>0</v>
       </c>
       <c r="L17" s="11">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1174,8 +1174,8 @@
       <c r="J18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
+      <c r="K18" s="13">
+        <v>0</v>
       </c>
       <c r="L18" s="13">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1213,8 +1213,8 @@
       <c r="J19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="K19" s="11">
+        <v>0</v>
       </c>
       <c r="L19" s="11">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1243,29 +1243,29 @@
       <c r="G20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>18</v>
+      <c r="H20" s="13">
+        <v>90495</v>
       </c>
       <c r="I20" s="13">
-        <v>90495</v>
-      </c>
-      <c r="J20" s="13">
         <v>10570</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13">
+        <v>6732</v>
       </c>
       <c r="L20" s="13">
-        <v>6732</v>
+        <v>496</v>
       </c>
       <c r="M20" s="13">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="N20" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1274,74 +1274,74 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>1054974</v>
+        <v>1232875</v>
       </c>
       <c r="F21" s="11">
-        <v>1232875</v>
+        <v>761632</v>
       </c>
       <c r="G21" s="11">
-        <v>761632</v>
+        <v>0</v>
       </c>
       <c r="H21" s="11">
-        <v>0</v>
+        <v>1026816</v>
       </c>
       <c r="I21" s="11">
-        <v>1026816</v>
-      </c>
-      <c r="J21" s="11">
         <v>565844</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>18</v>
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="11">
+        <v>670117</v>
       </c>
       <c r="L21" s="11">
-        <v>670117</v>
+        <v>453439</v>
       </c>
       <c r="M21" s="11">
-        <v>453439</v>
+        <v>376068</v>
       </c>
       <c r="N21" s="11">
-        <v>376068</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1539074</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15">
-        <v>2710212</v>
+        <v>3941384</v>
       </c>
       <c r="F22" s="15">
-        <v>3941384</v>
+        <v>7972209</v>
       </c>
       <c r="G22" s="15">
-        <v>7972209</v>
+        <v>2618190</v>
       </c>
       <c r="H22" s="15">
-        <v>2618190</v>
+        <v>3771152</v>
       </c>
       <c r="I22" s="15">
-        <v>3771152</v>
+        <v>3132149</v>
       </c>
       <c r="J22" s="15">
-        <v>3132149</v>
+        <v>0</v>
       </c>
       <c r="K22" s="15">
-        <v>0</v>
+        <v>3026048</v>
       </c>
       <c r="L22" s="15">
-        <v>3026048</v>
+        <v>2638795</v>
       </c>
       <c r="M22" s="15">
-        <v>2638795</v>
+        <v>2592197</v>
       </c>
       <c r="N22" s="15">
-        <v>2592197</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3543367</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>16</v>
       </c>
@@ -1378,14 +1378,14 @@
       <c r="H24" s="11">
         <v>0</v>
       </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
+      <c r="I24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>18</v>
@@ -1397,7 +1397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
@@ -1417,14 +1417,14 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0</v>
+      <c r="I25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L25" s="13" t="s">
         <v>18</v>
@@ -1436,7 +1436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>20</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>22</v>
       </c>
@@ -1484,74 +1484,74 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>191399</v>
+        <v>154459</v>
       </c>
       <c r="F27" s="13">
-        <v>154459</v>
+        <v>179983</v>
       </c>
       <c r="G27" s="13">
-        <v>179983</v>
+        <v>77978</v>
       </c>
       <c r="H27" s="13">
-        <v>77978</v>
+        <v>94487</v>
       </c>
       <c r="I27" s="13">
-        <v>94487</v>
-      </c>
-      <c r="J27" s="13">
         <v>90455</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>18</v>
+      <c r="J27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="13">
+        <v>120751</v>
       </c>
       <c r="L27" s="13">
-        <v>120751</v>
+        <v>6550</v>
       </c>
       <c r="M27" s="13">
-        <v>6550</v>
+        <v>78124</v>
       </c>
       <c r="N27" s="13">
-        <v>78124</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>62157</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
-        <v>191399</v>
+        <v>154459</v>
       </c>
       <c r="F28" s="17">
-        <v>154459</v>
+        <v>179983</v>
       </c>
       <c r="G28" s="17">
-        <v>179983</v>
+        <v>77978</v>
       </c>
       <c r="H28" s="17">
-        <v>77978</v>
+        <v>94487</v>
       </c>
       <c r="I28" s="17">
-        <v>94487</v>
+        <v>90455</v>
       </c>
       <c r="J28" s="17">
-        <v>90455</v>
+        <v>0</v>
       </c>
       <c r="K28" s="17">
-        <v>0</v>
+        <v>120751</v>
       </c>
       <c r="L28" s="17">
-        <v>120751</v>
+        <v>6550</v>
       </c>
       <c r="M28" s="17">
-        <v>6550</v>
+        <v>78124</v>
       </c>
       <c r="N28" s="17">
-        <v>78124</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>62157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>33</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
@@ -1591,11 +1591,11 @@
       <c r="I30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>34</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>35</v>
       </c>
@@ -1658,8 +1658,8 @@
       <c r="F32" s="17">
         <v>0</v>
       </c>
-      <c r="G32" s="17">
-        <v>0</v>
+      <c r="G32" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>18</v>
@@ -1683,7 +1683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>37</v>
       </c>
@@ -1695,20 +1695,20 @@
       <c r="F33" s="15">
         <v>0</v>
       </c>
-      <c r="G33" s="15">
-        <v>0</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="15">
-        <v>0</v>
+      <c r="G33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="15" t="s">
-        <v>18</v>
+      <c r="K33" s="15">
+        <v>0</v>
       </c>
       <c r="L33" s="15">
         <v>0</v>
@@ -1720,44 +1720,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17">
-        <v>2901611</v>
+        <v>4095843</v>
       </c>
       <c r="F34" s="17">
-        <v>4095843</v>
+        <v>8152192</v>
       </c>
       <c r="G34" s="17">
-        <v>8152192</v>
+        <v>2696168</v>
       </c>
       <c r="H34" s="17">
-        <v>2696168</v>
+        <v>3865639</v>
       </c>
       <c r="I34" s="17">
-        <v>3865639</v>
+        <v>3222604</v>
       </c>
       <c r="J34" s="17">
-        <v>3222604</v>
+        <v>0</v>
       </c>
       <c r="K34" s="17">
-        <v>0</v>
+        <v>3146799</v>
       </c>
       <c r="L34" s="17">
-        <v>3146799</v>
+        <v>2645345</v>
       </c>
       <c r="M34" s="17">
-        <v>2645345</v>
+        <v>2670321</v>
       </c>
       <c r="N34" s="17">
-        <v>2670321</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3605524</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1772,7 +1772,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1787,7 +1787,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1802,7 +1802,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1854,7 +1854,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
@@ -1880,25 +1880,25 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>908208</v>
+        <v>835254</v>
       </c>
       <c r="F41" s="11">
-        <v>835254</v>
+        <v>601496</v>
       </c>
       <c r="G41" s="11">
-        <v>601496</v>
+        <v>0</v>
       </c>
       <c r="H41" s="11">
         <v>0</v>
       </c>
       <c r="I41" s="11">
-        <v>0</v>
-      </c>
-      <c r="J41" s="11">
         <v>90452</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>18</v>
+      <c r="J41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
       </c>
       <c r="L41" s="11">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>19</v>
       </c>
@@ -1919,37 +1919,37 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>6053349</v>
+        <v>10992000</v>
       </c>
       <c r="F42" s="13">
-        <v>10992000</v>
+        <v>14214425</v>
       </c>
       <c r="G42" s="13">
-        <v>14214425</v>
+        <v>8328674</v>
       </c>
       <c r="H42" s="13">
-        <v>8328674</v>
+        <v>15992384</v>
       </c>
       <c r="I42" s="13">
-        <v>15992384</v>
-      </c>
-      <c r="J42" s="13">
         <v>26819558</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>18</v>
+      <c r="J42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="13">
+        <v>19064916</v>
       </c>
       <c r="L42" s="13">
-        <v>19064916</v>
+        <v>6646142</v>
       </c>
       <c r="M42" s="13">
-        <v>6646142</v>
+        <v>10931791</v>
       </c>
       <c r="N42" s="13">
-        <v>10931791</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8514774</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>20</v>
       </c>
@@ -1958,37 +1958,37 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>18715493</v>
+        <v>37196710</v>
       </c>
       <c r="F43" s="11">
-        <v>37196710</v>
+        <v>50056431</v>
       </c>
       <c r="G43" s="11">
-        <v>50056431</v>
+        <v>57102109</v>
       </c>
       <c r="H43" s="11">
-        <v>57102109</v>
+        <v>67091992</v>
       </c>
       <c r="I43" s="11">
-        <v>67091992</v>
-      </c>
-      <c r="J43" s="11">
         <v>53346169</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>18</v>
+      <c r="J43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="11">
+        <v>54895134</v>
       </c>
       <c r="L43" s="11">
-        <v>54895134</v>
+        <v>38535036</v>
       </c>
       <c r="M43" s="11">
-        <v>38535036</v>
+        <v>37758104</v>
       </c>
       <c r="N43" s="11">
-        <v>37758104</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46462980</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>21</v>
       </c>
@@ -1997,37 +1997,37 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>-95091</v>
+        <v>141391</v>
       </c>
       <c r="F44" s="13">
-        <v>141391</v>
+        <v>306068</v>
       </c>
       <c r="G44" s="13">
-        <v>306068</v>
+        <v>464892</v>
       </c>
       <c r="H44" s="13">
-        <v>464892</v>
+        <v>244167</v>
       </c>
       <c r="I44" s="13">
-        <v>244167</v>
-      </c>
-      <c r="J44" s="13">
         <v>384759</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>18</v>
+      <c r="J44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="13">
+        <v>271048</v>
       </c>
       <c r="L44" s="13">
-        <v>271048</v>
+        <v>774476</v>
       </c>
       <c r="M44" s="13">
-        <v>774476</v>
+        <v>333877</v>
       </c>
       <c r="N44" s="13">
-        <v>333877</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>457930</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>22</v>
       </c>
@@ -2036,37 +2036,37 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>10760771</v>
+        <v>11740752</v>
       </c>
       <c r="F45" s="11">
-        <v>11740752</v>
+        <v>14104108</v>
       </c>
       <c r="G45" s="11">
-        <v>14104108</v>
+        <v>18104973</v>
       </c>
       <c r="H45" s="11">
-        <v>18104973</v>
+        <v>13546348</v>
       </c>
       <c r="I45" s="11">
-        <v>13546348</v>
-      </c>
-      <c r="J45" s="11">
         <v>21591923</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>18</v>
+      <c r="J45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="11">
+        <v>28519832</v>
       </c>
       <c r="L45" s="11">
-        <v>28519832</v>
+        <v>32271562</v>
       </c>
       <c r="M45" s="11">
-        <v>32271562</v>
+        <v>36382892</v>
       </c>
       <c r="N45" s="11">
-        <v>36382892</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35973521</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>23</v>
       </c>
@@ -2075,37 +2075,37 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>2391426</v>
+        <v>5157803</v>
       </c>
       <c r="F46" s="13">
-        <v>5157803</v>
+        <v>3253122</v>
       </c>
       <c r="G46" s="13">
-        <v>3253122</v>
+        <v>2912661</v>
       </c>
       <c r="H46" s="13">
-        <v>2912661</v>
+        <v>6203255</v>
       </c>
       <c r="I46" s="13">
-        <v>6203255</v>
-      </c>
-      <c r="J46" s="13">
         <v>4678186</v>
       </c>
-      <c r="K46" s="13" t="s">
-        <v>18</v>
+      <c r="J46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="13">
+        <v>1878546</v>
       </c>
       <c r="L46" s="13">
-        <v>1878546</v>
+        <v>1944491</v>
       </c>
       <c r="M46" s="13">
-        <v>1944491</v>
+        <v>6630811</v>
       </c>
       <c r="N46" s="13">
-        <v>6630811</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>24</v>
       </c>
@@ -2131,8 +2131,8 @@
       <c r="J47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="11" t="s">
-        <v>18</v>
+      <c r="K47" s="11">
+        <v>0</v>
       </c>
       <c r="L47" s="11">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>25</v>
       </c>
@@ -2170,20 +2170,20 @@
       <c r="J48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>18</v>
+      <c r="K48" s="13">
+        <v>586923</v>
       </c>
       <c r="L48" s="13">
-        <v>586923</v>
+        <v>67796</v>
       </c>
       <c r="M48" s="13">
-        <v>67796</v>
+        <v>0</v>
       </c>
       <c r="N48" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>26</v>
       </c>
@@ -2209,8 +2209,8 @@
       <c r="J49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="11" t="s">
-        <v>18</v>
+      <c r="K49" s="11">
+        <v>0</v>
       </c>
       <c r="L49" s="11">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>27</v>
       </c>
@@ -2239,29 +2239,29 @@
       <c r="G50" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>18</v>
+      <c r="H50" s="13">
+        <v>1154357</v>
       </c>
       <c r="I50" s="13">
-        <v>1154357</v>
-      </c>
-      <c r="J50" s="13">
         <v>161912</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>18</v>
+      <c r="J50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="13">
+        <v>115758</v>
       </c>
       <c r="L50" s="13">
-        <v>115758</v>
+        <v>35055</v>
       </c>
       <c r="M50" s="13">
-        <v>35055</v>
+        <v>0</v>
       </c>
       <c r="N50" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>28</v>
       </c>
@@ -2270,74 +2270,74 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>-435234</v>
+        <v>433524</v>
       </c>
       <c r="F51" s="11">
-        <v>433524</v>
+        <v>443042</v>
       </c>
       <c r="G51" s="11">
-        <v>443042</v>
+        <v>711588</v>
       </c>
       <c r="H51" s="11">
-        <v>711588</v>
+        <v>1046639</v>
       </c>
       <c r="I51" s="11">
-        <v>1046639</v>
-      </c>
-      <c r="J51" s="11">
         <v>722429</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>18</v>
+      <c r="J51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="11">
+        <v>565394</v>
       </c>
       <c r="L51" s="11">
-        <v>565394</v>
+        <v>1259875</v>
       </c>
       <c r="M51" s="11">
-        <v>1259875</v>
+        <v>849362</v>
       </c>
       <c r="N51" s="11">
-        <v>849362</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>657385</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
-        <v>38298922</v>
+        <v>66497434</v>
       </c>
       <c r="F52" s="15">
-        <v>66497434</v>
+        <v>82978692</v>
       </c>
       <c r="G52" s="15">
-        <v>82978692</v>
+        <v>87624897</v>
       </c>
       <c r="H52" s="15">
-        <v>87624897</v>
+        <v>105279142</v>
       </c>
       <c r="I52" s="15">
-        <v>105279142</v>
+        <v>107795388</v>
       </c>
       <c r="J52" s="15">
-        <v>107795388</v>
+        <v>0</v>
       </c>
       <c r="K52" s="15">
-        <v>0</v>
+        <v>105897551</v>
       </c>
       <c r="L52" s="15">
-        <v>105897551</v>
+        <v>81534433</v>
       </c>
       <c r="M52" s="15">
-        <v>81534433</v>
+        <v>92886837</v>
       </c>
       <c r="N52" s="15">
-        <v>92886837</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>92066590</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>16</v>
       </c>
@@ -2374,14 +2374,14 @@
       <c r="H54" s="11">
         <v>0</v>
       </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="11">
-        <v>0</v>
+      <c r="I54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L54" s="11" t="s">
         <v>18</v>
@@ -2393,7 +2393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>19</v>
       </c>
@@ -2413,14 +2413,14 @@
       <c r="H55" s="13">
         <v>0</v>
       </c>
-      <c r="I55" s="13">
-        <v>0</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="13">
-        <v>0</v>
+      <c r="I55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="13">
+        <v>0</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L55" s="13" t="s">
         <v>18</v>
@@ -2432,7 +2432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>20</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>22</v>
       </c>
@@ -2480,74 +2480,74 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>12340493</v>
+        <v>15543760</v>
       </c>
       <c r="F57" s="13">
-        <v>15543760</v>
+        <v>21730562</v>
       </c>
       <c r="G57" s="13">
-        <v>21730562</v>
+        <v>9937886</v>
       </c>
       <c r="H57" s="13">
-        <v>9937886</v>
+        <v>11618364</v>
       </c>
       <c r="I57" s="13">
-        <v>11618364</v>
-      </c>
-      <c r="J57" s="13">
         <v>12868994</v>
       </c>
-      <c r="K57" s="13" t="s">
-        <v>18</v>
+      <c r="J57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="13">
+        <v>18163540</v>
       </c>
       <c r="L57" s="13">
-        <v>18163540</v>
+        <v>1109612</v>
       </c>
       <c r="M57" s="13">
-        <v>1109612</v>
+        <v>9783063</v>
       </c>
       <c r="N57" s="13">
-        <v>9783063</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9059820</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17">
-        <v>12340493</v>
+        <v>15543760</v>
       </c>
       <c r="F58" s="17">
-        <v>15543760</v>
+        <v>21730562</v>
       </c>
       <c r="G58" s="17">
-        <v>21730562</v>
+        <v>9937886</v>
       </c>
       <c r="H58" s="17">
-        <v>9937886</v>
+        <v>11618364</v>
       </c>
       <c r="I58" s="17">
-        <v>11618364</v>
+        <v>12868994</v>
       </c>
       <c r="J58" s="17">
-        <v>12868994</v>
+        <v>0</v>
       </c>
       <c r="K58" s="17">
-        <v>0</v>
+        <v>18163540</v>
       </c>
       <c r="L58" s="17">
-        <v>18163540</v>
+        <v>1109612</v>
       </c>
       <c r="M58" s="17">
-        <v>1109612</v>
+        <v>9783063</v>
       </c>
       <c r="N58" s="17">
-        <v>9783063</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9059820</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>43</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>25</v>
       </c>
@@ -2587,12 +2587,12 @@
       <c r="I60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="11">
+      <c r="J60" s="11">
         <v>12945991</v>
       </c>
+      <c r="K60" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L60" s="11" t="s">
         <v>18</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>34</v>
       </c>
@@ -2625,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="J61" s="15">
-        <v>0</v>
+        <v>12945991</v>
       </c>
       <c r="K61" s="15">
-        <v>12945991</v>
+        <v>0</v>
       </c>
       <c r="L61" s="15">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="16" t="s">
         <v>35</v>
       </c>
@@ -2654,8 +2654,8 @@
       <c r="F62" s="17">
         <v>0</v>
       </c>
-      <c r="G62" s="17">
-        <v>0</v>
+      <c r="G62" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="H62" s="17" t="s">
         <v>18</v>
@@ -2679,7 +2679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>37</v>
       </c>
@@ -2693,20 +2693,20 @@
       <c r="F63" s="15">
         <v>0</v>
       </c>
-      <c r="G63" s="15">
-        <v>0</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="15">
-        <v>0</v>
+      <c r="G63" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="15">
+        <v>0</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J63" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="15" t="s">
-        <v>18</v>
+      <c r="K63" s="15">
+        <v>0</v>
       </c>
       <c r="L63" s="15">
         <v>0</v>
@@ -2718,44 +2718,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17">
-        <v>50639415</v>
+        <v>82041194</v>
       </c>
       <c r="F64" s="17">
-        <v>82041194</v>
+        <v>104709254</v>
       </c>
       <c r="G64" s="17">
-        <v>104709254</v>
+        <v>97562783</v>
       </c>
       <c r="H64" s="17">
-        <v>97562783</v>
+        <v>116897506</v>
       </c>
       <c r="I64" s="17">
-        <v>116897506</v>
+        <v>120664382</v>
       </c>
       <c r="J64" s="17">
-        <v>120664382</v>
+        <v>12945991</v>
       </c>
       <c r="K64" s="17">
-        <v>12945991</v>
+        <v>124061091</v>
       </c>
       <c r="L64" s="17">
-        <v>124061091</v>
+        <v>82644045</v>
       </c>
       <c r="M64" s="17">
-        <v>82644045</v>
+        <v>102669900</v>
       </c>
       <c r="N64" s="17">
-        <v>102669900</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101126410</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2770,7 +2770,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2785,7 +2785,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2800,7 +2800,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>44</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2852,7 +2852,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>45</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>16</v>
       </c>
@@ -2878,26 +2878,26 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>9091171</v>
+        <v>13348473</v>
       </c>
       <c r="F71" s="11">
-        <v>13348473</v>
-      </c>
-      <c r="G71" s="11">
         <v>16113370</v>
       </c>
+      <c r="G71" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H71" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I71" s="11" t="s">
-        <v>18</v>
+      <c r="I71" s="11">
+        <v>18000398</v>
       </c>
       <c r="J71" s="11">
-        <v>18000398</v>
-      </c>
-      <c r="K71" s="11">
         <v>17142477</v>
       </c>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L71" s="11" t="s">
         <v>18</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>19</v>
       </c>
@@ -2917,37 +2917,37 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>18947920</v>
+        <v>26804461</v>
       </c>
       <c r="F72" s="13">
-        <v>26804461</v>
+        <v>32046517</v>
       </c>
       <c r="G72" s="13">
-        <v>32046517</v>
+        <v>32139918</v>
       </c>
       <c r="H72" s="13">
-        <v>32139918</v>
+        <v>49501450</v>
       </c>
       <c r="I72" s="13">
-        <v>49501450</v>
+        <v>44837887</v>
       </c>
       <c r="J72" s="13">
-        <v>44837887</v>
+        <v>36728755</v>
       </c>
       <c r="K72" s="13">
-        <v>36728755</v>
+        <v>43146668</v>
       </c>
       <c r="L72" s="13">
-        <v>43146668</v>
+        <v>21782631</v>
       </c>
       <c r="M72" s="13">
-        <v>21782631</v>
+        <v>28980573</v>
       </c>
       <c r="N72" s="13">
-        <v>28980573</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35610429</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>20</v>
       </c>
@@ -2956,37 +2956,37 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>13173236</v>
+        <v>18464277</v>
       </c>
       <c r="F73" s="11">
-        <v>18464277</v>
+        <v>22128233</v>
       </c>
       <c r="G73" s="11">
-        <v>22128233</v>
+        <v>26711963</v>
       </c>
       <c r="H73" s="11">
-        <v>26711963</v>
+        <v>31325606</v>
       </c>
       <c r="I73" s="11">
-        <v>31325606</v>
+        <v>31194966</v>
       </c>
       <c r="J73" s="11">
-        <v>31194966</v>
+        <v>23846097</v>
       </c>
       <c r="K73" s="11">
-        <v>23846097</v>
+        <v>32526421</v>
       </c>
       <c r="L73" s="11">
-        <v>32526421</v>
+        <v>24278810</v>
       </c>
       <c r="M73" s="11">
-        <v>24278810</v>
+        <v>25798303</v>
       </c>
       <c r="N73" s="11">
-        <v>25798303</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30356645</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>21</v>
       </c>
@@ -2995,37 +2995,37 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>199923</v>
+        <v>21371070</v>
       </c>
       <c r="F74" s="13">
-        <v>21371070</v>
+        <v>21296131</v>
       </c>
       <c r="G74" s="13">
-        <v>21296131</v>
+        <v>21301870</v>
       </c>
       <c r="H74" s="13">
-        <v>21301870</v>
+        <v>18145586</v>
       </c>
       <c r="I74" s="13">
-        <v>18145586</v>
+        <v>18273129</v>
       </c>
       <c r="J74" s="13">
-        <v>18273129</v>
+        <v>19344840</v>
       </c>
       <c r="K74" s="13">
-        <v>19344840</v>
+        <v>22421044</v>
       </c>
       <c r="L74" s="13">
-        <v>22421044</v>
+        <v>22761969</v>
       </c>
       <c r="M74" s="13">
-        <v>22761969</v>
+        <v>22442495</v>
       </c>
       <c r="N74" s="13">
-        <v>22442495</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31160180</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>22</v>
       </c>
@@ -3034,37 +3034,37 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>61295725</v>
+        <v>97818406</v>
       </c>
       <c r="F75" s="11">
-        <v>97818406</v>
+        <v>105354388</v>
       </c>
       <c r="G75" s="11">
-        <v>105354388</v>
+        <v>112570714</v>
       </c>
       <c r="H75" s="11">
-        <v>112570714</v>
+        <v>131814845</v>
       </c>
       <c r="I75" s="11">
-        <v>131814845</v>
+        <v>131002257</v>
       </c>
       <c r="J75" s="11">
-        <v>131002257</v>
+        <v>128848905</v>
       </c>
       <c r="K75" s="11">
-        <v>128848905</v>
+        <v>152066842</v>
       </c>
       <c r="L75" s="11">
-        <v>152066842</v>
+        <v>138580093</v>
       </c>
       <c r="M75" s="11">
-        <v>138580093</v>
+        <v>134060791</v>
       </c>
       <c r="N75" s="11">
-        <v>134060791</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>163576230</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>23</v>
       </c>
@@ -3073,37 +3073,37 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>20753862</v>
+        <v>54470409</v>
       </c>
       <c r="F76" s="13">
-        <v>54470409</v>
+        <v>65932752</v>
       </c>
       <c r="G76" s="13">
-        <v>65932752</v>
+        <v>75266448</v>
       </c>
       <c r="H76" s="13">
-        <v>75266448</v>
+        <v>85225936</v>
       </c>
       <c r="I76" s="13">
-        <v>85225936</v>
+        <v>82654923</v>
       </c>
       <c r="J76" s="13">
-        <v>82654923</v>
+        <v>80785176</v>
       </c>
       <c r="K76" s="13">
-        <v>80785176</v>
+        <v>93974287</v>
       </c>
       <c r="L76" s="13">
-        <v>93974287</v>
+        <v>75773167</v>
       </c>
       <c r="M76" s="13">
-        <v>75773167</v>
-      </c>
-      <c r="N76" s="13">
         <v>74453301</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N76" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>24</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>25</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>26</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>27</v>
       </c>
@@ -3237,29 +3237,29 @@
       <c r="G80" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="13" t="s">
-        <v>18</v>
+      <c r="H80" s="13">
+        <v>12756031</v>
       </c>
       <c r="I80" s="13">
-        <v>12756031</v>
+        <v>15318070</v>
       </c>
       <c r="J80" s="13">
-        <v>15318070</v>
+        <v>13019467</v>
       </c>
       <c r="K80" s="13">
-        <v>13019467</v>
+        <v>17195187</v>
       </c>
       <c r="L80" s="13">
-        <v>17195187</v>
-      </c>
-      <c r="M80" s="13">
         <v>70675403</v>
       </c>
-      <c r="N80" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>28</v>
       </c>
@@ -3268,37 +3268,37 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>-412554</v>
+        <v>351637</v>
       </c>
       <c r="F81" s="11">
-        <v>351637</v>
-      </c>
-      <c r="G81" s="11">
         <v>581701</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>18</v>
+      <c r="G81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="11">
+        <v>1019305</v>
       </c>
       <c r="I81" s="11">
-        <v>1019305</v>
+        <v>1276728</v>
       </c>
       <c r="J81" s="11">
-        <v>1276728</v>
+        <v>430379</v>
       </c>
       <c r="K81" s="11">
-        <v>430379</v>
+        <v>843724</v>
       </c>
       <c r="L81" s="11">
-        <v>843724</v>
+        <v>2778488</v>
       </c>
       <c r="M81" s="11">
-        <v>2778488</v>
+        <v>2258533</v>
       </c>
       <c r="N81" s="11">
-        <v>2258533</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>427130</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>48</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>16</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>19</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>20</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>22</v>
       </c>
@@ -3441,37 +3441,37 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>64475222</v>
+        <v>100633566</v>
       </c>
       <c r="F86" s="13">
-        <v>100633566</v>
+        <v>120736747</v>
       </c>
       <c r="G86" s="13">
-        <v>120736747</v>
+        <v>127444741</v>
       </c>
       <c r="H86" s="13">
-        <v>127444741</v>
+        <v>122962566</v>
       </c>
       <c r="I86" s="13">
-        <v>122962566</v>
+        <v>142269571</v>
       </c>
       <c r="J86" s="13">
-        <v>142269571</v>
+        <v>136926147</v>
       </c>
       <c r="K86" s="13">
-        <v>136926147</v>
+        <v>150421446</v>
       </c>
       <c r="L86" s="13">
-        <v>150421446</v>
+        <v>169406412</v>
       </c>
       <c r="M86" s="13">
-        <v>169406412</v>
+        <v>125224809</v>
       </c>
       <c r="N86" s="13">
-        <v>125224809</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>145757035</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>49</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>25</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3542,7 +3542,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3557,7 +3557,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3572,7 +3572,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>50</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3624,7 +3624,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>51</v>
       </c>
@@ -3641,7 +3641,7 @@
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>16</v>
       </c>
@@ -3650,25 +3650,25 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>-288329</v>
+        <v>-281127</v>
       </c>
       <c r="F95" s="11">
-        <v>-281127</v>
+        <v>-273519</v>
       </c>
       <c r="G95" s="11">
-        <v>-273519</v>
+        <v>0</v>
       </c>
       <c r="H95" s="11">
         <v>0</v>
       </c>
       <c r="I95" s="11">
-        <v>0</v>
+        <v>-31718</v>
       </c>
       <c r="J95" s="11">
-        <v>-31718</v>
+        <v>-5938</v>
       </c>
       <c r="K95" s="11">
-        <v>-5938</v>
+        <v>0</v>
       </c>
       <c r="L95" s="11">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>19</v>
       </c>
@@ -3689,37 +3689,37 @@
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
-        <v>-1702622</v>
+        <v>-2923120</v>
       </c>
       <c r="F96" s="13">
-        <v>-2923120</v>
+        <v>-5055454</v>
       </c>
       <c r="G96" s="13">
-        <v>-5055454</v>
+        <v>-2487167</v>
       </c>
       <c r="H96" s="13">
-        <v>-2487167</v>
+        <v>-4714481</v>
       </c>
       <c r="I96" s="13">
-        <v>-4714481</v>
+        <v>-10059745</v>
       </c>
       <c r="J96" s="13">
-        <v>-10059745</v>
+        <v>-6233380</v>
       </c>
       <c r="K96" s="13">
-        <v>-6233380</v>
+        <v>-6974676</v>
       </c>
       <c r="L96" s="13">
-        <v>-6974676</v>
+        <v>-6045015</v>
       </c>
       <c r="M96" s="13">
-        <v>-6045015</v>
+        <v>-8048995</v>
       </c>
       <c r="N96" s="13">
-        <v>-8048995</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5410918</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>20</v>
       </c>
@@ -3728,37 +3728,37 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>-6222023</v>
+        <v>-12741572</v>
       </c>
       <c r="F97" s="11">
-        <v>-12741572</v>
+        <v>-22618873</v>
       </c>
       <c r="G97" s="11">
-        <v>-22618873</v>
+        <v>-18862899</v>
       </c>
       <c r="H97" s="11">
-        <v>-18862899</v>
+        <v>-24433008</v>
       </c>
       <c r="I97" s="11">
-        <v>-24433008</v>
+        <v>-30935481</v>
       </c>
       <c r="J97" s="11">
-        <v>-30935481</v>
+        <v>-2889189</v>
       </c>
       <c r="K97" s="11">
-        <v>-2889189</v>
+        <v>-23551850</v>
       </c>
       <c r="L97" s="11">
-        <v>-23551850</v>
+        <v>-24400701</v>
       </c>
       <c r="M97" s="11">
-        <v>-24400701</v>
+        <v>-20914582</v>
       </c>
       <c r="N97" s="11">
-        <v>-20914582</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-20129261</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>21</v>
       </c>
@@ -3767,37 +3767,37 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>-58439</v>
+        <v>-21774</v>
       </c>
       <c r="F98" s="13">
-        <v>-21774</v>
+        <v>-49241</v>
       </c>
       <c r="G98" s="13">
-        <v>-49241</v>
+        <v>-76408</v>
       </c>
       <c r="H98" s="13">
-        <v>-76408</v>
+        <v>-75605</v>
       </c>
       <c r="I98" s="13">
-        <v>-75605</v>
+        <v>-101379</v>
       </c>
       <c r="J98" s="13">
-        <v>-101379</v>
+        <v>-148025</v>
       </c>
       <c r="K98" s="13">
-        <v>-148025</v>
+        <v>-70227</v>
       </c>
       <c r="L98" s="13">
-        <v>-70227</v>
+        <v>-263949</v>
       </c>
       <c r="M98" s="13">
-        <v>-263949</v>
+        <v>-240085</v>
       </c>
       <c r="N98" s="13">
-        <v>-240085</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-132335</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>22</v>
       </c>
@@ -3806,37 +3806,37 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>-650398</v>
+        <v>-3488924</v>
       </c>
       <c r="F99" s="11">
-        <v>-3488924</v>
+        <v>-4778159</v>
       </c>
       <c r="G99" s="11">
-        <v>-4778159</v>
+        <v>-6422109</v>
       </c>
       <c r="H99" s="11">
-        <v>-6422109</v>
+        <v>-5488746</v>
       </c>
       <c r="I99" s="11">
-        <v>-5488746</v>
+        <v>-12703575</v>
       </c>
       <c r="J99" s="11">
-        <v>-12703575</v>
+        <v>-13677121</v>
       </c>
       <c r="K99" s="11">
-        <v>-13677121</v>
+        <v>-11497594</v>
       </c>
       <c r="L99" s="11">
-        <v>-11497594</v>
+        <v>-19582236</v>
       </c>
       <c r="M99" s="11">
-        <v>-19582236</v>
+        <v>-25822602</v>
       </c>
       <c r="N99" s="11">
-        <v>-25822602</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-16388483</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>23</v>
       </c>
@@ -3845,37 +3845,37 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>-1185180</v>
+        <v>-1294670</v>
       </c>
       <c r="F100" s="13">
-        <v>-1294670</v>
+        <v>-1040086</v>
       </c>
       <c r="G100" s="13">
-        <v>-1040086</v>
+        <v>-619309</v>
       </c>
       <c r="H100" s="13">
-        <v>-619309</v>
+        <v>-1547804</v>
       </c>
       <c r="I100" s="13">
-        <v>-1547804</v>
+        <v>-2029551</v>
       </c>
       <c r="J100" s="13">
-        <v>-2029551</v>
+        <v>226419</v>
       </c>
       <c r="K100" s="13">
-        <v>226419</v>
+        <v>-591542</v>
       </c>
       <c r="L100" s="13">
-        <v>-591542</v>
+        <v>-892145</v>
       </c>
       <c r="M100" s="13">
-        <v>-892145</v>
+        <v>-3137559</v>
       </c>
       <c r="N100" s="13">
-        <v>-3137559</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-153928</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>24</v>
       </c>
@@ -3898,8 +3898,8 @@
       <c r="I101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J101" s="11" t="s">
-        <v>18</v>
+      <c r="J101" s="11">
+        <v>0</v>
       </c>
       <c r="K101" s="11">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>25</v>
       </c>
@@ -3940,8 +3940,8 @@
       <c r="J102" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K102" s="13" t="s">
-        <v>18</v>
+      <c r="K102" s="13">
+        <v>0</v>
       </c>
       <c r="L102" s="13">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>26</v>
       </c>
@@ -3976,8 +3976,8 @@
       <c r="I103" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J103" s="11" t="s">
-        <v>18</v>
+      <c r="J103" s="11">
+        <v>0</v>
       </c>
       <c r="K103" s="11">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>27</v>
       </c>
@@ -4009,29 +4009,29 @@
       <c r="G104" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H104" s="13" t="s">
-        <v>18</v>
+      <c r="H104" s="13">
+        <v>-500222</v>
       </c>
       <c r="I104" s="13">
-        <v>-500222</v>
+        <v>-70248</v>
       </c>
       <c r="J104" s="13">
-        <v>-70248</v>
+        <v>-237093</v>
       </c>
       <c r="K104" s="13">
-        <v>-237093</v>
+        <v>-43988</v>
       </c>
       <c r="L104" s="13">
-        <v>-43988</v>
+        <v>-20862</v>
       </c>
       <c r="M104" s="13">
-        <v>-20862</v>
+        <v>64850</v>
       </c>
       <c r="N104" s="13">
-        <v>64850</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-64850</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>28</v>
       </c>
@@ -4040,74 +4040,74 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>-321275</v>
+        <v>-258764</v>
       </c>
       <c r="F105" s="11">
-        <v>-258764</v>
+        <v>-289857</v>
       </c>
       <c r="G105" s="11">
-        <v>-289857</v>
+        <v>-301293</v>
       </c>
       <c r="H105" s="11">
-        <v>-301293</v>
+        <v>-422813</v>
       </c>
       <c r="I105" s="11">
-        <v>-422813</v>
+        <v>-675777</v>
       </c>
       <c r="J105" s="11">
-        <v>-675777</v>
+        <v>-272932</v>
       </c>
       <c r="K105" s="11">
-        <v>-272932</v>
+        <v>-376732</v>
       </c>
       <c r="L105" s="11">
-        <v>-376732</v>
+        <v>-723578</v>
       </c>
       <c r="M105" s="11">
-        <v>-723578</v>
+        <v>-487991</v>
       </c>
       <c r="N105" s="11">
-        <v>-487991</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-202493</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
-        <v>-10428266</v>
+        <v>-21009951</v>
       </c>
       <c r="F106" s="15">
-        <v>-21009951</v>
+        <v>-34105189</v>
       </c>
       <c r="G106" s="15">
-        <v>-34105189</v>
+        <v>-28769185</v>
       </c>
       <c r="H106" s="15">
-        <v>-28769185</v>
+        <v>-37182679</v>
       </c>
       <c r="I106" s="15">
-        <v>-37182679</v>
+        <v>-56607474</v>
       </c>
       <c r="J106" s="15">
-        <v>-56607474</v>
+        <v>-23237259</v>
       </c>
       <c r="K106" s="15">
-        <v>-23237259</v>
+        <v>-43106609</v>
       </c>
       <c r="L106" s="15">
-        <v>-43106609</v>
+        <v>-51928486</v>
       </c>
       <c r="M106" s="15">
-        <v>-51928486</v>
+        <v>-58586964</v>
       </c>
       <c r="N106" s="15">
-        <v>-58586964</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-42482268</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>53</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>16</v>
       </c>
@@ -4144,14 +4144,14 @@
       <c r="H108" s="11">
         <v>0</v>
       </c>
-      <c r="I108" s="11">
-        <v>0</v>
-      </c>
-      <c r="J108" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K108" s="11">
-        <v>0</v>
+      <c r="I108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" s="11">
+        <v>0</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L108" s="11" t="s">
         <v>18</v>
@@ -4163,7 +4163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>19</v>
       </c>
@@ -4183,14 +4183,14 @@
       <c r="H109" s="13">
         <v>0</v>
       </c>
-      <c r="I109" s="13">
-        <v>0</v>
-      </c>
-      <c r="J109" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K109" s="13">
-        <v>0</v>
+      <c r="I109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="13">
+        <v>0</v>
+      </c>
+      <c r="K109" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L109" s="13" t="s">
         <v>18</v>
@@ -4202,7 +4202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>20</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>22</v>
       </c>
@@ -4250,74 +4250,74 @@
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>-7334843</v>
+        <v>-4932312</v>
       </c>
       <c r="F111" s="13">
-        <v>-4932312</v>
+        <v>-7018911</v>
       </c>
       <c r="G111" s="13">
-        <v>-7018911</v>
+        <v>-3233496</v>
       </c>
       <c r="H111" s="13">
-        <v>-3233496</v>
+        <v>-4878436</v>
       </c>
       <c r="I111" s="13">
-        <v>-4878436</v>
+        <v>-6993830</v>
       </c>
       <c r="J111" s="13">
-        <v>-6993830</v>
+        <v>-5487742</v>
       </c>
       <c r="K111" s="13">
-        <v>-5487742</v>
+        <v>-8825684</v>
       </c>
       <c r="L111" s="13">
-        <v>-8825684</v>
+        <v>-2132663</v>
       </c>
       <c r="M111" s="13">
-        <v>-2132663</v>
+        <v>-6948936</v>
       </c>
       <c r="N111" s="13">
-        <v>-6948936</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5074347</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17">
-        <v>-7334843</v>
+        <v>-4932312</v>
       </c>
       <c r="F112" s="17">
-        <v>-4932312</v>
+        <v>-7018911</v>
       </c>
       <c r="G112" s="17">
-        <v>-7018911</v>
+        <v>-3233496</v>
       </c>
       <c r="H112" s="17">
-        <v>-3233496</v>
+        <v>-4878436</v>
       </c>
       <c r="I112" s="17">
-        <v>-4878436</v>
+        <v>-6993830</v>
       </c>
       <c r="J112" s="17">
-        <v>-6993830</v>
+        <v>-5487742</v>
       </c>
       <c r="K112" s="17">
-        <v>-5487742</v>
+        <v>-8825684</v>
       </c>
       <c r="L112" s="17">
-        <v>-8825684</v>
+        <v>-2132663</v>
       </c>
       <c r="M112" s="17">
-        <v>-2132663</v>
+        <v>-6948936</v>
       </c>
       <c r="N112" s="17">
-        <v>-6948936</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5074347</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>55</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>25</v>
       </c>
@@ -4357,11 +4357,11 @@
       <c r="I114" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J114" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K114" s="11">
-        <v>0</v>
+      <c r="J114" s="11">
+        <v>0</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L114" s="11" t="s">
         <v>18</v>
@@ -4373,7 +4373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
         <v>56</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="16" t="s">
         <v>35</v>
       </c>
@@ -4424,8 +4424,8 @@
       <c r="F116" s="17">
         <v>0</v>
       </c>
-      <c r="G116" s="17">
-        <v>0</v>
+      <c r="G116" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="H116" s="17" t="s">
         <v>18</v>
@@ -4449,7 +4449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>37</v>
       </c>
@@ -4463,17 +4463,17 @@
       <c r="F117" s="15">
         <v>0</v>
       </c>
-      <c r="G117" s="15">
-        <v>0</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I117" s="15">
-        <v>0</v>
-      </c>
-      <c r="J117" s="15" t="s">
-        <v>18</v>
+      <c r="G117" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="15">
+        <v>0</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" s="15">
+        <v>0</v>
       </c>
       <c r="K117" s="15">
         <v>0</v>
@@ -4488,44 +4488,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
       <c r="E118" s="17">
-        <v>-17763109</v>
+        <v>-25942263</v>
       </c>
       <c r="F118" s="17">
-        <v>-25942263</v>
+        <v>-41124100</v>
       </c>
       <c r="G118" s="17">
-        <v>-41124100</v>
+        <v>-32002681</v>
       </c>
       <c r="H118" s="17">
-        <v>-32002681</v>
+        <v>-42061115</v>
       </c>
       <c r="I118" s="17">
-        <v>-42061115</v>
+        <v>-63601304</v>
       </c>
       <c r="J118" s="17">
-        <v>-63601304</v>
+        <v>-28725001</v>
       </c>
       <c r="K118" s="17">
-        <v>-28725001</v>
+        <v>-51932293</v>
       </c>
       <c r="L118" s="17">
-        <v>-51932293</v>
+        <v>-54061149</v>
       </c>
       <c r="M118" s="17">
-        <v>-54061149</v>
+        <v>-65535900</v>
       </c>
       <c r="N118" s="17">
-        <v>-65535900</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-47556615</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4540,7 +4540,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4555,7 +4555,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4570,7 +4570,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
         <v>57</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4622,7 +4622,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>58</v>
       </c>
@@ -4639,7 +4639,7 @@
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
@@ -4648,25 +4648,25 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>619879</v>
+        <v>554127</v>
       </c>
       <c r="F125" s="11">
-        <v>554127</v>
+        <v>327977</v>
       </c>
       <c r="G125" s="11">
-        <v>327977</v>
+        <v>0</v>
       </c>
       <c r="H125" s="11">
         <v>0</v>
       </c>
       <c r="I125" s="11">
-        <v>0</v>
+        <v>58734</v>
       </c>
       <c r="J125" s="11">
-        <v>58734</v>
+        <v>45594</v>
       </c>
       <c r="K125" s="11">
-        <v>45594</v>
+        <v>0</v>
       </c>
       <c r="L125" s="11">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>19</v>
       </c>
@@ -4687,37 +4687,37 @@
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13">
-        <v>4350727</v>
+        <v>8068880</v>
       </c>
       <c r="F126" s="13">
-        <v>8068880</v>
+        <v>9158971</v>
       </c>
       <c r="G126" s="13">
-        <v>9158971</v>
+        <v>5841507</v>
       </c>
       <c r="H126" s="13">
-        <v>5841507</v>
+        <v>11277903</v>
       </c>
       <c r="I126" s="13">
-        <v>11277903</v>
+        <v>16759813</v>
       </c>
       <c r="J126" s="13">
-        <v>16759813</v>
+        <v>16601254</v>
       </c>
       <c r="K126" s="13">
-        <v>16601254</v>
+        <v>12090240</v>
       </c>
       <c r="L126" s="13">
-        <v>12090240</v>
+        <v>601127</v>
       </c>
       <c r="M126" s="13">
-        <v>601127</v>
+        <v>2882796</v>
       </c>
       <c r="N126" s="13">
-        <v>2882796</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3103856</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>20</v>
       </c>
@@ -4726,37 +4726,37 @@
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
-        <v>12493470</v>
+        <v>24455138</v>
       </c>
       <c r="F127" s="11">
-        <v>24455138</v>
+        <v>27437558</v>
       </c>
       <c r="G127" s="11">
-        <v>27437558</v>
+        <v>38239210</v>
       </c>
       <c r="H127" s="11">
-        <v>38239210</v>
+        <v>42658984</v>
       </c>
       <c r="I127" s="11">
-        <v>42658984</v>
+        <v>22410688</v>
       </c>
       <c r="J127" s="11">
-        <v>22410688</v>
+        <v>37285285</v>
       </c>
       <c r="K127" s="11">
-        <v>37285285</v>
+        <v>31343284</v>
       </c>
       <c r="L127" s="11">
-        <v>31343284</v>
+        <v>14134335</v>
       </c>
       <c r="M127" s="11">
-        <v>14134335</v>
+        <v>16843522</v>
       </c>
       <c r="N127" s="11">
-        <v>16843522</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26333719</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>21</v>
       </c>
@@ -4765,37 +4765,37 @@
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
-        <v>144147</v>
+        <v>119617</v>
       </c>
       <c r="F128" s="13">
-        <v>119617</v>
+        <v>256827</v>
       </c>
       <c r="G128" s="13">
-        <v>256827</v>
+        <v>388484</v>
       </c>
       <c r="H128" s="13">
-        <v>388484</v>
+        <v>168562</v>
       </c>
       <c r="I128" s="13">
-        <v>168562</v>
+        <v>283380</v>
       </c>
       <c r="J128" s="13">
-        <v>283380</v>
+        <v>346816</v>
       </c>
       <c r="K128" s="13">
-        <v>346816</v>
+        <v>200821</v>
       </c>
       <c r="L128" s="13">
-        <v>200821</v>
+        <v>510527</v>
       </c>
       <c r="M128" s="13">
-        <v>510527</v>
+        <v>93792</v>
       </c>
       <c r="N128" s="13">
-        <v>93792</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>325595</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>22</v>
       </c>
@@ -4804,37 +4804,37 @@
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11">
-        <v>6079713</v>
+        <v>8251828</v>
       </c>
       <c r="F129" s="11">
-        <v>8251828</v>
+        <v>9325949</v>
       </c>
       <c r="G129" s="11">
-        <v>9325949</v>
+        <v>11682864</v>
       </c>
       <c r="H129" s="11">
-        <v>11682864</v>
+        <v>8057602</v>
       </c>
       <c r="I129" s="11">
-        <v>8057602</v>
+        <v>8888348</v>
       </c>
       <c r="J129" s="11">
-        <v>8888348</v>
+        <v>16388869</v>
       </c>
       <c r="K129" s="11">
-        <v>16388869</v>
+        <v>17022238</v>
       </c>
       <c r="L129" s="11">
-        <v>17022238</v>
+        <v>12689326</v>
       </c>
       <c r="M129" s="11">
-        <v>12689326</v>
+        <v>10560290</v>
       </c>
       <c r="N129" s="11">
-        <v>10560290</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19585038</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>23</v>
       </c>
@@ -4843,37 +4843,37 @@
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13">
-        <v>3769740</v>
+        <v>3863133</v>
       </c>
       <c r="F130" s="13">
-        <v>3863133</v>
+        <v>2213036</v>
       </c>
       <c r="G130" s="13">
-        <v>2213036</v>
+        <v>2293352</v>
       </c>
       <c r="H130" s="13">
-        <v>2293352</v>
+        <v>4655451</v>
       </c>
       <c r="I130" s="13">
-        <v>4655451</v>
+        <v>2648635</v>
       </c>
       <c r="J130" s="13">
-        <v>2648635</v>
+        <v>601343</v>
       </c>
       <c r="K130" s="13">
-        <v>601343</v>
+        <v>1287004</v>
       </c>
       <c r="L130" s="13">
-        <v>1287004</v>
+        <v>1052346</v>
       </c>
       <c r="M130" s="13">
-        <v>1052346</v>
+        <v>3493252</v>
       </c>
       <c r="N130" s="13">
-        <v>3493252</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-153928</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>24</v>
       </c>
@@ -4896,8 +4896,8 @@
       <c r="I131" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J131" s="11" t="s">
-        <v>18</v>
+      <c r="J131" s="11">
+        <v>0</v>
       </c>
       <c r="K131" s="11">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="12" t="s">
         <v>25</v>
       </c>
@@ -4938,20 +4938,20 @@
       <c r="J132" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K132" s="13" t="s">
-        <v>18</v>
+      <c r="K132" s="13">
+        <v>586923</v>
       </c>
       <c r="L132" s="13">
-        <v>586923</v>
+        <v>67796</v>
       </c>
       <c r="M132" s="13">
-        <v>67796</v>
+        <v>0</v>
       </c>
       <c r="N132" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>26</v>
       </c>
@@ -4974,8 +4974,8 @@
       <c r="I133" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J133" s="11" t="s">
-        <v>18</v>
+      <c r="J133" s="11">
+        <v>0</v>
       </c>
       <c r="K133" s="11">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="12" t="s">
         <v>27</v>
       </c>
@@ -5007,29 +5007,29 @@
       <c r="G134" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H134" s="13" t="s">
-        <v>18</v>
+      <c r="H134" s="13">
+        <v>654135</v>
       </c>
       <c r="I134" s="13">
-        <v>654135</v>
+        <v>91664</v>
       </c>
       <c r="J134" s="13">
-        <v>91664</v>
+        <v>164857</v>
       </c>
       <c r="K134" s="13">
-        <v>164857</v>
+        <v>71770</v>
       </c>
       <c r="L134" s="13">
-        <v>71770</v>
+        <v>14193</v>
       </c>
       <c r="M134" s="13">
-        <v>14193</v>
+        <v>64850</v>
       </c>
       <c r="N134" s="13">
-        <v>64850</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-64850</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>28</v>
       </c>
@@ -5038,74 +5038,74 @@
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
-        <v>412980</v>
+        <v>174760</v>
       </c>
       <c r="F135" s="11">
-        <v>174760</v>
+        <v>153185</v>
       </c>
       <c r="G135" s="11">
-        <v>153185</v>
+        <v>410295</v>
       </c>
       <c r="H135" s="11">
-        <v>410295</v>
+        <v>623826</v>
       </c>
       <c r="I135" s="11">
-        <v>623826</v>
+        <v>46652</v>
       </c>
       <c r="J135" s="11">
-        <v>46652</v>
+        <v>512742</v>
       </c>
       <c r="K135" s="11">
-        <v>512742</v>
+        <v>188662</v>
       </c>
       <c r="L135" s="11">
-        <v>188662</v>
+        <v>536297</v>
       </c>
       <c r="M135" s="11">
-        <v>536297</v>
+        <v>361371</v>
       </c>
       <c r="N135" s="11">
-        <v>361371</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>454892</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="15">
-        <v>27870656</v>
+        <v>45487483</v>
       </c>
       <c r="F136" s="15">
-        <v>45487483</v>
+        <v>48873503</v>
       </c>
       <c r="G136" s="15">
-        <v>48873503</v>
+        <v>58855712</v>
       </c>
       <c r="H136" s="15">
-        <v>58855712</v>
+        <v>68096463</v>
       </c>
       <c r="I136" s="15">
-        <v>68096463</v>
+        <v>51187914</v>
       </c>
       <c r="J136" s="15">
-        <v>51187914</v>
+        <v>71946760</v>
       </c>
       <c r="K136" s="15">
-        <v>71946760</v>
+        <v>62790942</v>
       </c>
       <c r="L136" s="15">
-        <v>62790942</v>
+        <v>29605947</v>
       </c>
       <c r="M136" s="15">
-        <v>29605947</v>
+        <v>34299873</v>
       </c>
       <c r="N136" s="15">
-        <v>34299873</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49584322</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>60</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>16</v>
       </c>
@@ -5142,14 +5142,14 @@
       <c r="H138" s="11">
         <v>0</v>
       </c>
-      <c r="I138" s="11">
-        <v>0</v>
-      </c>
-      <c r="J138" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K138" s="11">
-        <v>0</v>
+      <c r="I138" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" s="11">
+        <v>0</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L138" s="11" t="s">
         <v>18</v>
@@ -5161,7 +5161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="12" t="s">
         <v>19</v>
       </c>
@@ -5181,14 +5181,14 @@
       <c r="H139" s="13">
         <v>0</v>
       </c>
-      <c r="I139" s="13">
-        <v>0</v>
-      </c>
-      <c r="J139" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K139" s="13">
-        <v>0</v>
+      <c r="I139" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" s="13">
+        <v>0</v>
+      </c>
+      <c r="K139" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L139" s="13" t="s">
         <v>18</v>
@@ -5200,7 +5200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>20</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="12" t="s">
         <v>22</v>
       </c>
@@ -5248,74 +5248,74 @@
       </c>
       <c r="D141" s="13"/>
       <c r="E141" s="13">
-        <v>5005650</v>
+        <v>10611448</v>
       </c>
       <c r="F141" s="13">
-        <v>10611448</v>
+        <v>14711651</v>
       </c>
       <c r="G141" s="13">
-        <v>14711651</v>
+        <v>6704390</v>
       </c>
       <c r="H141" s="13">
-        <v>6704390</v>
+        <v>6739928</v>
       </c>
       <c r="I141" s="13">
-        <v>6739928</v>
+        <v>5875164</v>
       </c>
       <c r="J141" s="13">
-        <v>5875164</v>
+        <v>7243925</v>
       </c>
       <c r="K141" s="13">
-        <v>7243925</v>
+        <v>9337856</v>
       </c>
       <c r="L141" s="13">
-        <v>9337856</v>
+        <v>-1023051</v>
       </c>
       <c r="M141" s="13">
-        <v>-1023051</v>
+        <v>2834127</v>
       </c>
       <c r="N141" s="13">
-        <v>2834127</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3985473</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
       <c r="E142" s="17">
-        <v>5005650</v>
+        <v>10611448</v>
       </c>
       <c r="F142" s="17">
-        <v>10611448</v>
+        <v>14711651</v>
       </c>
       <c r="G142" s="17">
-        <v>14711651</v>
+        <v>6704390</v>
       </c>
       <c r="H142" s="17">
-        <v>6704390</v>
+        <v>6739928</v>
       </c>
       <c r="I142" s="17">
-        <v>6739928</v>
+        <v>5875164</v>
       </c>
       <c r="J142" s="17">
-        <v>5875164</v>
+        <v>7243925</v>
       </c>
       <c r="K142" s="17">
-        <v>7243925</v>
+        <v>9337856</v>
       </c>
       <c r="L142" s="17">
-        <v>9337856</v>
+        <v>-1023051</v>
       </c>
       <c r="M142" s="17">
-        <v>-1023051</v>
+        <v>2834127</v>
       </c>
       <c r="N142" s="17">
-        <v>2834127</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3985473</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>62</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>25</v>
       </c>
@@ -5355,12 +5355,12 @@
       <c r="I144" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J144" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K144" s="11">
+      <c r="J144" s="11">
         <v>12945991</v>
       </c>
+      <c r="K144" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L144" s="11" t="s">
         <v>18</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="14" t="s">
         <v>63</v>
       </c>
@@ -5393,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="J145" s="15">
-        <v>0</v>
+        <v>12945991</v>
       </c>
       <c r="K145" s="15">
-        <v>12945991</v>
+        <v>0</v>
       </c>
       <c r="L145" s="15">
         <v>0</v>
@@ -5408,41 +5408,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
       <c r="E146" s="17">
-        <v>32876306</v>
+        <v>56098931</v>
       </c>
       <c r="F146" s="17">
-        <v>56098931</v>
+        <v>63585154</v>
       </c>
       <c r="G146" s="17">
-        <v>63585154</v>
+        <v>65560102</v>
       </c>
       <c r="H146" s="17">
-        <v>65560102</v>
+        <v>74836391</v>
       </c>
       <c r="I146" s="17">
-        <v>74836391</v>
+        <v>57063078</v>
       </c>
       <c r="J146" s="17">
-        <v>57063078</v>
+        <v>92136676</v>
       </c>
       <c r="K146" s="17">
-        <v>92136676</v>
+        <v>72128798</v>
       </c>
       <c r="L146" s="17">
-        <v>72128798</v>
+        <v>28582896</v>
       </c>
       <c r="M146" s="17">
-        <v>28582896</v>
+        <v>37134000</v>
       </c>
       <c r="N146" s="17">
-        <v>37134000</v>
+        <v>53569795</v>
       </c>
     </row>
   </sheetData>
